--- a/scripts/LTERsiteEvolution.xlsx
+++ b/scripts/LTERsiteEvolution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scgordon/MetadataEvaluation/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA77256E-EF56-204A-9902-467D77DC8D55}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4476D-D6E4-2945-852C-45E49DB260C4}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="1" xr2:uid="{964B1029-C82C-9A43-8A66-EF50CBFAE01A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>Andrews Forest LTER (AND) = 423</t>
   </si>
@@ -136,13 +136,28 @@
     <t>.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; </t>
-  </si>
-  <si>
     <t>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-</t>
   </si>
   <si>
     <t>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; </t>
+  </si>
+  <si>
+    <t>current.xml</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>e1</t>
   </si>
 </sst>
 </file>
@@ -495,29 +510,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D6F14F-005B-2342-BE69-94D4C5F15F05}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:K68"/>
+      <selection activeCell="F39" sqref="F39:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -534,7 +546,7 @@
       </c>
       <c r="J2" t="str">
         <f>$A$1&amp;F2&amp;$B$1&amp;G2+1000&amp;$C$1&amp;UPPER($F2)&amp;E$1&amp;D$1</f>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-and%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1423&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; AND.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-and%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1423&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; ANDcurrent.xml</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -551,7 +563,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J33" si="2">$A$1&amp;F3&amp;$B$1&amp;G3+1000&amp;$C$1&amp;UPPER($F3)&amp;E$1&amp;D$1</f>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-arc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5429&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; ARC.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-arc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5429&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; ARCcurrent.xml</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -568,7 +580,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-bes%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5048&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BES.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-bes%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5048&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BEScurrent.xml</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -605,7 +617,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-bnz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=6446&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BNZ.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-bnz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=6446&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BNZcurrent.xml</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -622,7 +634,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1210&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CCE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1210&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CCEcurrent.xml</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -639,7 +651,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cdr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3985&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CDR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cdr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3985&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CDRcurrent.xml</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -656,7 +668,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cap%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2757&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CAP.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cap%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2757&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CAPcurrent.xml</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -673,7 +685,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1435&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CWT.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-cwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1435&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CWTcurrent.xml</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -690,7 +702,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-fce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3172&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; FCE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-fce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3172&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; FCEcurrent.xml</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -707,7 +719,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-gce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=4728&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; GCE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-gce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=4728&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; GCEcurrent.xml</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -724,7 +736,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-hfr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3177&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HFR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-hfr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3177&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HFRcurrent.xml</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -741,7 +753,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-hbr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1394&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HBR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-hbr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1394&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HBRcurrent.xml</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -758,7 +770,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-jrn%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1451&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; JRN.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-jrn%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1451&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; JRNcurrent.xml</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -775,7 +787,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-kbs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1908&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KBS.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-kbs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1908&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KBScurrent.xml</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -792,7 +804,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-knz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1401&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KNZ.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-knz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1401&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KNZcurrent.xml</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -849,7 +861,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-luq%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1491&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; LUQ.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-luq%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1491&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; LUQcurrent.xml</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -866,7 +878,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-mcm%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1892&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCM.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-mcm%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1892&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCMcurrent.xml</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -883,7 +895,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-mcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1432&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-mcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1432&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCRcurrent.xml</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -900,7 +912,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-nwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1411&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NWT.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-nwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1411&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NWTcurrent.xml</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -917,7 +929,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-ntl%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2292&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NTL.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-ntl%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2292&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NTLcurrent.xml</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -974,7 +986,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-pal%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1296&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PAL.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-pal%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1296&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PALcurrent.xml</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -991,7 +1003,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-pie%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2132&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PIE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-pie%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2132&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PIEcurrent.xml</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1008,7 +1020,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-sbc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2073&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SBC.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-sbc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2073&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SBCcurrent.xml</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1025,7 +1037,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-sev%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2112&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SEV.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-sev%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2112&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SEVcurrent.xml</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1042,7 +1054,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-sgs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1504&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SGS.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-sgs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1504&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SGScurrent.xml</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1059,7 +1071,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-vcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2763&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; VCR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-vcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2763&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; VCRcurrent.xml</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -1080,6 +1092,42 @@
       <c r="J33" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" t="str">
+        <f>A1</f>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND+-obsoletedBy:*+AND+identifier:%27-lter-</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" t="str">
+        <f>B1</f>
+        <v>%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" t="str">
+        <f>C1</f>
+        <v xml:space="preserve">&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; </v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="str">
+        <f>E1</f>
+        <v>current.xml</v>
       </c>
     </row>
   </sheetData>
@@ -1092,21 +1140,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C750A77-8209-D14B-AD8A-4C1913DECA47}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:M76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" activeCellId="5" sqref="A5 A18 A19 A25 A26 A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
@@ -1129,7 +1177,7 @@
       </c>
       <c r="J2" t="str">
         <f>$A$1&amp;F2&amp;$B$1&amp;G2+1000&amp;$C$1&amp;UPPER($F2)&amp;E$1&amp;D$1</f>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-and%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1423&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; AND.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-and%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1423&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; AND.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1146,7 +1194,7 @@
       </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J33" si="2">$A$1&amp;F3&amp;$B$1&amp;G3+1000&amp;$C$1&amp;UPPER($F3)&amp;E$1&amp;D$1</f>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-arc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5429&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; ARC.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-arc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5429&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; ARC.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1163,7 +1211,7 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-bes%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5048&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BES.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-bes%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=5048&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BES.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1200,7 +1248,7 @@
       </c>
       <c r="J6" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-bnz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=6446&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BNZ.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-bnz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=6446&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; BNZ.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1217,7 +1265,7 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1210&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CCE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1210&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CCE.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1234,7 +1282,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cdr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3985&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CDR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cdr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3985&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CDR.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1251,7 +1299,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cap%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2757&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CAP.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cap%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2757&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CAP.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1268,7 +1316,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1435&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CWT.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-cwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1435&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; CWT.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1285,7 +1333,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-fce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3172&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; FCE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-fce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3172&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; FCE.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1302,7 +1350,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-gce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=4728&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; GCE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-gce%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=4728&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; GCE.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1319,7 +1367,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-hfr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3177&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HFR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-hfr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=3177&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HFR.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1336,7 +1384,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-hbr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1394&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HBR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-hbr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1394&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; HBR.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1353,7 +1401,7 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-jrn%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1451&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; JRN.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-jrn%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1451&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; JRN.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1370,7 +1418,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-kbs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1908&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KBS.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-kbs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1908&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KBS.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1387,7 +1435,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-knz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1401&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KNZ.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-knz%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1401&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; KNZ.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1444,7 +1492,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-luq%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1491&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; LUQ.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-luq%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1491&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; LUQ.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1461,7 +1509,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-mcm%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1892&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCM.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-mcm%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1892&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCM.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1478,7 +1526,7 @@
       </c>
       <c r="J22" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-mcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1432&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-mcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1432&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; MCR.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1495,7 +1543,7 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-nwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1411&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NWT.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-nwt%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1411&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NWT.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1512,7 +1560,7 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-ntl%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2292&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NTL.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-ntl%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2292&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; NTL.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1569,7 +1617,7 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-pal%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1296&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PAL.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-pal%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1296&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PAL.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1586,7 +1634,7 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-pie%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2132&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PIE.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-pie%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2132&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; PIE.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1603,7 +1651,7 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-sbc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2073&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SBC.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-sbc%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2073&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SBC.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1620,7 +1668,7 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-sev%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2112&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SEV.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-sev%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2112&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SEV.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -1637,7 +1685,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-sgs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1504&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SGS.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-sgs%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=1504&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; SGS.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -1654,7 +1702,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="2"/>
-        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-vcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2763&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2001-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; VCR.xml &amp;&amp;</v>
+        <v>curl "http://cn.dataone.org/cn/v2/query/solr/?q=formatType:METADATA+AND+authoritativeMN:*LTER+AND++AND+identifier:%27-lter-vcr%27&amp;fl=dateUploaded,datePublished,dataUrl&amp;rows=2763&amp;sort=dateUploaded+asc&amp;facet=true&amp;facet.missing=true&amp;facet.limit=-1&amp;facet.range=dateUploaded&amp;facet.range.start=2005-01-01T00:00:00Z&amp;facet.range.end=2018-12-31T23:59:59.999Z&amp;facet.range.gap=%2B1YEAR&amp;wt=xml" &gt; VCR.xml &amp;&amp;</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
